--- a/CTG/CSTC.xlsx
+++ b/CTG/CSTC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM38"/>
+  <dimension ref="A1:BN38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,11 @@
       <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Q1/2025</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Q2/2025</t>
         </is>
       </c>
     </row>
@@ -830,6 +835,7 @@
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1029,6 +1035,9 @@
       <c r="BM3" t="n">
         <v>4804.77</v>
       </c>
+      <c r="BN3" t="n">
+        <v>5606.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1228,6 +1237,9 @@
       <c r="BM4" t="n">
         <v>28674.56</v>
       </c>
+      <c r="BN4" t="n">
+        <v>30507.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1427,6 +1439,9 @@
       <c r="BM5" t="n">
         <v>8.630000000000001</v>
       </c>
+      <c r="BN5" t="n">
+        <v>7.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1626,6 +1641,9 @@
       <c r="BM6" t="n">
         <v>1.45</v>
       </c>
+      <c r="BN6" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1772,28 +1790,28 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AY7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="BC7" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="BD7" t="n">
         <v>0</v>
@@ -1823,6 +1841,9 @@
         <v>0</v>
       </c>
       <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,6 +2044,9 @@
       </c>
       <c r="BM8" t="n">
         <v>1.29</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="9">
@@ -2095,6 +2119,7 @@
       <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2294,6 +2319,9 @@
       <c r="BM10" t="n">
         <v>3.58</v>
       </c>
+      <c r="BN10" t="n">
+        <v>6.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2492,6 +2520,9 @@
       </c>
       <c r="BM11" t="n">
         <v>0.22</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
@@ -2672,6 +2703,9 @@
       <c r="BM12" t="n">
         <v>1.34</v>
       </c>
+      <c r="BN12" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2871,6 +2905,9 @@
       <c r="BM13" t="n">
         <v>0.77</v>
       </c>
+      <c r="BN13" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3070,6 +3107,9 @@
       <c r="BM14" t="n">
         <v>0.64</v>
       </c>
+      <c r="BN14" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3268,6 +3308,9 @@
       </c>
       <c r="BM15" t="n">
         <v>26.98</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>27.95</v>
       </c>
     </row>
     <row r="16">
@@ -3374,6 +3417,9 @@
       <c r="BM16" t="n">
         <v>17.89</v>
       </c>
+      <c r="BN16" t="n">
+        <v>19.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3478,6 +3524,9 @@
       </c>
       <c r="BM17" t="n">
         <v>1.12</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.24</v>
       </c>
     </row>
     <row r="18">
@@ -3550,6 +3599,7 @@
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3737,6 +3787,9 @@
       <c r="BM19" t="n">
         <v>9.869999999999999</v>
       </c>
+      <c r="BN19" t="n">
+        <v>79.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3924,6 +3977,9 @@
       <c r="BM20" t="n">
         <v>9.279999999999999</v>
       </c>
+      <c r="BN20" t="n">
+        <v>80.23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4115,6 +4171,9 @@
       <c r="BM21" t="n">
         <v>18.88</v>
       </c>
+      <c r="BN21" t="n">
+        <v>20.74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4306,6 +4365,9 @@
       <c r="BM22" t="n">
         <v>17.92</v>
       </c>
+      <c r="BN22" t="n">
+        <v>20.48</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4487,6 +4549,9 @@
       <c r="BM23" t="n">
         <v>0</v>
       </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4686,6 +4751,9 @@
       <c r="BM24" t="n">
         <v>18.89</v>
       </c>
+      <c r="BN24" t="n">
+        <v>20.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4885,6 +4953,9 @@
       <c r="BM25" t="n">
         <v>13.56</v>
       </c>
+      <c r="BN25" t="n">
+        <v>17.26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5084,6 +5155,9 @@
       <c r="BM26" t="n">
         <v>1.98</v>
       </c>
+      <c r="BN26" t="n">
+        <v>3.28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5283,6 +5357,9 @@
       <c r="BM27" t="n">
         <v>4.38</v>
       </c>
+      <c r="BN27" t="n">
+        <v>-12.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5482,6 +5559,9 @@
       <c r="BM28" t="n">
         <v>-9.460000000000001</v>
       </c>
+      <c r="BN28" t="n">
+        <v>-23.96</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5681,6 +5761,9 @@
       <c r="BM29" t="n">
         <v>4.73</v>
       </c>
+      <c r="BN29" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5879,6 +5962,9 @@
       </c>
       <c r="BM30" t="n">
         <v>14.81</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>15.24</v>
       </c>
     </row>
     <row r="31">
@@ -5951,6 +6037,7 @@
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="inlineStr"/>
       <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6150,6 +6237,9 @@
       <c r="BM32" t="n">
         <v>79.23999999999999</v>
       </c>
+      <c r="BN32" t="n">
+        <v>79.36</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6348,6 +6438,9 @@
       </c>
       <c r="BM33" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>72.78</v>
       </c>
     </row>
     <row r="34">
@@ -6538,6 +6631,9 @@
       <c r="BM34" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="BN34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6736,6 +6832,9 @@
       </c>
       <c r="BM35" t="n">
         <v>6.23</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>6.28</v>
       </c>
     </row>
     <row r="36">
@@ -6808,6 +6907,7 @@
       <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="inlineStr"/>
       <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7007,6 +7107,9 @@
       <c r="BM37" t="n">
         <v>-0.02</v>
       </c>
+      <c r="BN37" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7205,6 +7308,9 @@
       </c>
       <c r="BM38" t="n">
         <v>98.63</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>98.48</v>
       </c>
     </row>
   </sheetData>
